--- a/XurtepNominas/bin/Debug/Archivos/procesos1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/procesos1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="puestos">[1]puestos!$A$5:$A$24</definedName>
+    <definedName name="lista_puesto">[1]puestos!$A$5:$A$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -321,48 +321,54 @@
     <t>Buque</t>
   </si>
   <si>
+    <t>19/001</t>
+  </si>
+  <si>
     <t>15/001</t>
   </si>
   <si>
-    <t>16/001</t>
-  </si>
-  <si>
-    <t>17/001</t>
-  </si>
-  <si>
-    <t>18/001</t>
-  </si>
-  <si>
-    <t>19/001</t>
-  </si>
-  <si>
     <t>20/002</t>
   </si>
   <si>
+    <t>28/010</t>
+  </si>
+  <si>
     <t>21/021</t>
   </si>
   <si>
+    <t>31/038</t>
+  </si>
+  <si>
+    <t>30/038</t>
+  </si>
+  <si>
+    <t>29/049</t>
+  </si>
+  <si>
+    <t>VACACIONES PROPORCIONALES</t>
+  </si>
+  <si>
     <t>SUELDO BASE</t>
   </si>
   <si>
-    <t>TIEMPO EXTRA FIJO</t>
-  </si>
-  <si>
-    <t>TIEMPO EXTRA OCASIONAL</t>
-  </si>
-  <si>
-    <t>DESC. SEM OBLIGATORIO</t>
-  </si>
-  <si>
-    <t>VACACIONES PROPORCIONALES</t>
-  </si>
-  <si>
     <t>AGUINALDO</t>
   </si>
   <si>
+    <t>BONO PUNTUALIDAD</t>
+  </si>
+  <si>
     <t>PRIMA VACACIONAL</t>
   </si>
   <si>
+    <t>BONO PROCESO</t>
+  </si>
+  <si>
+    <t>FOMENTO AL DEPORTE</t>
+  </si>
+  <si>
+    <t>BONO ASISTENCIA</t>
+  </si>
+  <si>
     <t>Gravado</t>
   </si>
   <si>
@@ -375,6 +381,9 @@
     <t>23/002</t>
   </si>
   <si>
+    <t>46/004</t>
+  </si>
+  <si>
     <t>22/006</t>
   </si>
   <si>
@@ -390,6 +399,9 @@
     <t>ISR</t>
   </si>
   <si>
+    <t>PRESTAMO</t>
+  </si>
+  <si>
     <t>INCAPACIDAD</t>
   </si>
   <si>
@@ -406,12 +418,6 @@
   </si>
   <si>
     <t>Tipo</t>
-  </si>
-  <si>
-    <t>46/004</t>
-  </si>
-  <si>
-    <t>PRESTAMO</t>
   </si>
   <si>
     <t>58/011</t>
@@ -430,13 +436,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -483,44 +486,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -796,11 +764,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -816,23 +784,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,24 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,21 +815,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares 14" xfId="2"/>
     <cellStyle name="Millares 2 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 7" xfId="2"/>
+    <cellStyle name="Normal 7" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -922,102 +856,77 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="A5" t="str">
-            <v>CAPITAN</v>
+            <v>SUPERITENDENTE DE  OPERACIONES A</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>JEFE DE MAQUINAS</v>
+            <v>SUPERITENDENTE DE OPERACIONES B</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>PRIMER OFICIAL CUBIERTA</v>
+            <v>SUPERVISOR DE PROCESO A</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>PRIMER OFICIAL MAQUINAS</v>
+            <v>SUPERVISOR DE PROCESO B</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>SEGUNDO OFICIAL CUBIERTA</v>
+            <v>INGENIERO DE MANTENIMIENTO</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>SEGUNDO OFICIAL MAQUINAS</v>
+            <v>MEDICO A</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>INGENIERO ELECTRICISTA</v>
+            <v>MEDICO B</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>INGENIERO ELECTRONICO</v>
+            <v>INGENIERO DE PROCESO</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>CONTRAMAESTRE</v>
+            <v>TECNICO DE PROCESO</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>COCINERO</v>
+            <v>TECNICO LABORATORISTA</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>MOTORISTA</v>
+            <v>OPERADOR DE PLANTA</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v xml:space="preserve">MARINERO </v>
+            <v>MANIOBRISTA</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>MARINERO E</v>
+            <v>OPERADOR DE GRUA</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>TERCER OFICIAL MAQUINAS</v>
+            <v>AYUDANTE  DE MANTENIMIENTO</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>CAMARERO</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>MECÁNICO (MOT. SOBRESTANTE)</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>MAYORDOMO</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>AYUDANTE MAQUINAS</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>AYUDANTE COCINA</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>OFICIALES EN PRACTICAS: PILOTIN / ASPIRANTE</v>
+            <v>SUPERVISOR  DE SSPA</v>
           </cell>
         </row>
       </sheetData>
@@ -1316,26 +1225,26 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="36" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
@@ -1343,17 +1252,17 @@
     <col min="18" max="18" width="6.7109375" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" customWidth="1"/>
     <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
     <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" style="31" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" customWidth="1"/>
     <col min="27" max="27" width="19.7109375" customWidth="1"/>
     <col min="28" max="28" width="16.7109375" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" customWidth="1"/>
     <col min="30" max="30" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1365,10 +1274,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1380,48 +1289,48 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38"/>
+      <c r="N1" s="20"/>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="37" t="s">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="38"/>
+      <c r="S1" s="20"/>
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="W1" s="20"/>
+      <c r="X1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
+      <c r="AA1" s="20"/>
       <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1435,20 +1344,100 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="U2" s="15"/>
-      <c r="Z2" s="21"/>
-      <c r="AE2" s="22"/>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+      <c r="Q2">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>18</v>
+      </c>
+      <c r="S2">
+        <v>19</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>21</v>
+      </c>
+      <c r="V2">
+        <v>22</v>
+      </c>
+      <c r="W2">
+        <v>23</v>
+      </c>
+      <c r="X2">
+        <v>24</v>
+      </c>
+      <c r="Y2">
+        <v>25</v>
+      </c>
+      <c r="Z2">
+        <v>26</v>
+      </c>
+      <c r="AA2">
+        <v>27</v>
+      </c>
+      <c r="AB2">
+        <v>28</v>
+      </c>
+      <c r="AC2">
+        <v>29</v>
+      </c>
+      <c r="AD2">
+        <v>30</v>
+      </c>
+      <c r="AE2">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1460,36 +1449,34 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
-      <formula1>puestos</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1518,105 +1505,162 @@
         <v>31</v>
       </c>
       <c r="P1" s="6"/>
+      <c r="Q1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="40" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="40" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="40" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="42" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="43"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="23"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -1630,13 +1674,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:L4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,65 +1688,64 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="25" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="G1" s="13"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="45" t="s">
+      <c r="C2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="D2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1713,48 +1756,44 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="D4" s="20"/>
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="K2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2"/>
-    <mergeCell ref="K2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -1770,7 +1809,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/XurtepNominas/bin/Debug/Archivos/procesos1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/procesos1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -1223,13 +1223,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,101 +1344,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>11</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>13</v>
-      </c>
-      <c r="N2">
-        <v>14</v>
-      </c>
-      <c r="O2">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>16</v>
-      </c>
-      <c r="Q2">
-        <v>17</v>
-      </c>
-      <c r="R2">
-        <v>18</v>
-      </c>
-      <c r="S2">
-        <v>19</v>
-      </c>
-      <c r="T2">
-        <v>20</v>
-      </c>
-      <c r="U2">
-        <v>21</v>
-      </c>
-      <c r="V2">
-        <v>22</v>
-      </c>
-      <c r="W2">
-        <v>23</v>
-      </c>
-      <c r="X2">
-        <v>24</v>
-      </c>
-      <c r="Y2">
-        <v>25</v>
-      </c>
-      <c r="Z2">
-        <v>26</v>
-      </c>
-      <c r="AA2">
-        <v>27</v>
-      </c>
-      <c r="AB2">
-        <v>28</v>
-      </c>
-      <c r="AC2">
-        <v>29</v>
-      </c>
-      <c r="AD2">
-        <v>30</v>
-      </c>
-      <c r="AE2">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="X1:Y1"/>
@@ -1457,13 +1362,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2:P2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,62 +1503,6 @@
       </c>
       <c r="R3" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>11</v>
-      </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>13</v>
-      </c>
-      <c r="N4">
-        <v>14</v>
-      </c>
-      <c r="O4">
-        <v>15</v>
-      </c>
-      <c r="P4">
-        <v>16</v>
-      </c>
-      <c r="Q4">
-        <v>17</v>
-      </c>
-      <c r="R4">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/XurtepNominas/bin/Debug/Archivos/procesos1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/procesos1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -1225,7 +1225,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1525,20 +1525,22 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD8"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/XurtepNominas/bin/Debug/Archivos/procesos1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/procesos1.xlsx
@@ -1229,7 +1229,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,13 +1368,13 @@
       <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
@@ -1536,7 +1536,9 @@
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>

--- a/XurtepNominas/bin/Debug/Archivos/procesos1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/procesos1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -430,6 +430,15 @@
   </si>
   <si>
     <t>INFONAVIT MES ANTERIOR</t>
+  </si>
+  <si>
+    <t>94/002</t>
+  </si>
+  <si>
+    <t>SUBSIDIO</t>
+  </si>
+  <si>
+    <t>Subsidio Causado</t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -752,6 +761,36 @@
       </left>
       <right style="thin">
         <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF808080"/>
@@ -768,7 +807,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -824,6 +863,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 14" xfId="2"/>
@@ -1525,7 +1575,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1656,17 +1706,56 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>